--- a/plantillas/censo.xlsx
+++ b/plantillas/censo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>censo</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>(nuevo)</t>
+  </si>
+  <si>
+    <t>Faja</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>[Bloque-Numero]</t>
   </si>
 </sst>
 </file>
@@ -80,14 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -97,6 +107,14 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,10 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -171,8 +189,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,17 +502,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="4" customWidth="1"/>
-    <col min="4" max="10" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="19.28515625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="4"/>
+    <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="4"/>
     <col min="11" max="11" width="18.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,74 +524,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8">
-        <v>41702</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -577,7 +611,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -592,7 +626,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -607,7 +641,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -622,7 +656,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -637,7 +671,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -652,7 +686,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -667,7 +701,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -682,7 +716,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -697,7 +731,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -712,7 +746,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -727,7 +761,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -742,7 +776,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -757,7 +791,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -772,7 +806,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -787,7 +821,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -802,7 +836,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -817,7 +851,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -832,7 +866,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -847,7 +881,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -862,7 +896,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -877,7 +911,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -892,7 +926,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -907,7 +941,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -922,7 +956,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -937,7 +971,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -952,7 +986,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -967,7 +1001,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -982,7 +1016,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -995,7 +1029,27 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>30</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
